--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="API-Testing-Sheet2" sheetId="2" r:id="rId5"/>
@@ -91,8 +94,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
@@ -101,8 +104,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
@@ -122,8 +125,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
@@ -132,8 +135,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -180,8 +183,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
@@ -190,8 +193,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
@@ -208,8 +211,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
@@ -218,8 +221,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -229,52 +232,105 @@
   </si>
   <si>
     <t>PetPost_3</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>tag=grey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Consolas"/>
       <b/>
       <color rgb="FF008000"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
     </font>
     <font>
-      <u/>
-      <sz val="9.0"/>
+      <name val="Arial"/>
       <color rgb="FF505050"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <u val="single"/>
     </font>
     <font>
+      <name val="Docs-Inconsolata"/>
       <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Docs-Inconsolata"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
+      <name val="Inconsolata"/>
       <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Inconsolata"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
-    <font/>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,36 +350,26 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -543,21 +589,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="49.29"/>
-    <col customWidth="1" min="13" max="13" width="24.29"/>
+    <col min="2" max="2" width="18.14" customWidth="1"/>
+    <col min="3" max="3" width="176.14" customWidth="1"/>
+    <col min="7" max="7" width="23.29" customWidth="1"/>
+    <col min="11" max="11" width="49.29" customWidth="1"/>
+    <col min="12" max="12" width="24.29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -577,34 +624,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -623,25 +664,25 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -658,19 +699,19 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -690,19 +731,19 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1">
-        <v>200.0</v>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -713,31 +754,32 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="49.29"/>
-    <col customWidth="1" min="13" max="13" width="24.29"/>
+    <col min="2" max="2" width="18.14" customWidth="1"/>
+    <col min="3" max="3" width="176.14" customWidth="1"/>
+    <col min="7" max="7" width="23.29" customWidth="1"/>
+    <col min="11" max="11" width="49.29" customWidth="1"/>
+    <col min="12" max="12" width="24.29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -757,34 +799,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -803,28 +842,28 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -841,22 +880,25 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -876,19 +918,19 @@
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -899,10 +941,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>tag=grey</t>
+  </si>
+  <si>
+    <t>EDI-271 API test sheet 2</t>
+  </si>
+  <si>
+    <t>EDI-271 API test sheet 2</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
@@ -770,7 +776,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
@@ -831,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
@@ -776,7 +776,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="topLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
@@ -866,9 +866,7 @@
       <c r="L2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
@@ -948,7 +946,6 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harihara Yugan\Desktop\Extra\November 19\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB6C00-9417-4455-9AD1-27B2A60638A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="API-Testing-Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="API-Testing-Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -32,34 +38,16 @@
     <t>RequestFile</t>
   </si>
   <si>
-    <t>RequestProcessingType</t>
-  </si>
-  <si>
     <t>ResponseFile</t>
   </si>
   <si>
     <t>ResponseProcessingType</t>
   </si>
   <si>
-    <t>HTTPAction</t>
-  </si>
-  <si>
-    <t>ExcludeField</t>
-  </si>
-  <si>
-    <t>HttpStatusCode</t>
-  </si>
-  <si>
     <t>StoreResponseVariables</t>
   </si>
   <si>
     <t>AddifyVariables</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>tags</t>
   </si>
   <si>
     <t>EDI271</t>
@@ -91,21 +79,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
@@ -122,21 +110,21 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -180,49 +168,46 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
   </si>
   <si>
-    <t>okta=http://www.okta.com/okta2</t>
-  </si>
-  <si>
     <t>PetGet_2</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Inconsolata"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -237,40 +222,28 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>ExcludeFields</t>
   </si>
   <si>
     <t>StatusCode</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t>ExcludeFields</t>
-  </si>
-  <si>
-    <t>StatusCode</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>ExcludeFields</t>
-  </si>
-  <si>
-    <t>StatusCode</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>tag=grey</t>
-  </si>
-  <si>
-    <t>EDI-271 API test sheet 2</t>
   </si>
   <si>
     <t>EDI-271 API test sheet 2</t>
@@ -279,63 +252,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Consolas"/>
-      <b/>
-      <color rgb="FF008000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
       <name val="Arial"/>
-      <color rgb="FF505050"/>
-      <sz val="9"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Docs-Inconsolata"/>
-      <b/>
-      <color rgb="FF1155CC"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
-      <b/>
-      <color rgb="FF1155CC"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
+      <name val="Inconsolata"/>
     </font>
   </fonts>
   <fills count="3">
@@ -343,7 +313,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -353,10 +323,16 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -377,31 +353,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -591,29 +574,211 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="176.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.399999999999999">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.399999999999999">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(G3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" sqref="A21"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="18.14" customWidth="1"/>
-    <col min="3" max="3" width="176.14" customWidth="1"/>
-    <col min="7" max="7" width="23.29" customWidth="1"/>
-    <col min="11" max="11" width="49.29" customWidth="1"/>
-    <col min="12" max="12" width="24.29" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="176.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="49.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,127 +795,137 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.399999999999999">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="1">
         <v>200</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J3" s="1">
         <v>200</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.399999999999999">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
         <v>200</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -760,195 +935,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.14" customWidth="1"/>
-    <col min="3" max="3" width="176.14" customWidth="1"/>
-    <col min="7" max="7" width="23.29" customWidth="1"/>
-    <col min="11" max="11" width="49.29" customWidth="1"/>
-    <col min="12" max="12" width="24.29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1">
-        <v>200</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1">
-        <v>200</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1">
-        <v>200</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-  </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harihara Yugan\Desktop\Extra\November 19\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB6C00-9417-4455-9AD1-27B2A60638A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A1E84-F016-4576-841C-5E2983B324E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>EDI-271 API test sheet 2</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -349,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,175 +593,187 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="176.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="176.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.399999999999999">
+    <row r="2" spans="1:14" ht="17.399999999999999">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>200</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.399999999999999">
+    <row r="3" spans="1:14" ht="17.399999999999999">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.399999999999999">
+    <row r="4" spans="1:14" ht="17.399999999999999">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(G3))&gt;0</formula>
+      <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -763,181 +784,194 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="176.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="49.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="176.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="49.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
+    <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999">
+    <row r="2" spans="1:15" ht="17.399999999999999">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>200</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="17.399999999999999">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="17.399999999999999">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G3))&gt;0</formula>
+      <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
